--- a/fpma/uploads/moneglisedata.xlsx
+++ b/fpma/uploads/moneglisedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\fpma\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FDA889-9A95-403E-9168-FECD44498953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D73C1-0B80-4643-BF1B-E8FB7A091D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -1130,6 +1130,10 @@
   </si>
   <si>
     <t>Sampana Sekoly Alahady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miarahaba antsika amin'ny anaran'ny Tompo ! 
+Tahaka ny mahazatra dia misy ny alim-bavaka arahina par zoom &lt;a target="_balnk" href="Https://us02web.zoom.us/j/6936894758"&gt;&lt;u&gt;Https://us02web.zoom.us/j/6936894758&lt;/u&gt;&lt;/a&gt; isak'ny  talata amin'ny 20h30. </t>
   </si>
 </sst>
 </file>
@@ -3145,13 +3149,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="50.375" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="120.125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="22.625" customWidth="1"/>
     <col min="9" max="26" width="10.5" customWidth="1"/>
@@ -3331,7 +3337,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>72</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>76</v>
@@ -3400,7 +3406,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>76</v>
@@ -3458,7 +3464,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>76</v>
@@ -3516,7 +3522,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>76</v>
@@ -3574,7 +3580,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
@@ -3632,7 +3638,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>76</v>
@@ -3690,7 +3696,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>76</v>
@@ -3748,7 +3754,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>76</v>
@@ -3806,7 +3812,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>76</v>
@@ -3864,7 +3870,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>76</v>
@@ -3922,7 +3928,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>76</v>
@@ -3980,7 +3986,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>76</v>
@@ -4038,7 +4044,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>76</v>
@@ -4096,7 +4102,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>76</v>
@@ -4154,7 +4160,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>76</v>
@@ -4212,7 +4218,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>76</v>
@@ -4270,7 +4276,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>76</v>
@@ -4328,7 +4334,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>76</v>
@@ -4386,7 +4392,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>76</v>
@@ -4444,7 +4450,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -4502,7 +4508,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>76</v>
@@ -4560,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>76</v>
@@ -4618,7 +4624,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>76</v>
@@ -4676,7 +4682,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>76</v>
@@ -4734,7 +4740,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>76</v>
@@ -4792,7 +4798,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>76</v>
@@ -4850,7 +4856,7 @@
         <v>74</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>76</v>
@@ -4908,7 +4914,7 @@
         <v>74</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>76</v>
@@ -4966,7 +4972,7 @@
         <v>74</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>76</v>
@@ -5024,7 +5030,7 @@
         <v>74</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>76</v>
@@ -5082,7 +5088,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>76</v>
@@ -5140,7 +5146,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>76</v>
@@ -5198,7 +5204,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>76</v>
@@ -5256,7 +5262,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>76</v>
@@ -5314,7 +5320,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>76</v>
@@ -5372,7 +5378,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>76</v>
@@ -5430,7 +5436,7 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>76</v>
@@ -5488,7 +5494,7 @@
         <v>74</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>76</v>
@@ -5546,7 +5552,7 @@
         <v>74</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>76</v>
@@ -5604,7 +5610,7 @@
         <v>74</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>76</v>
@@ -5662,7 +5668,7 @@
         <v>74</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>76</v>
@@ -8910,7 +8916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>

--- a/fpma/uploads/moneglisedata.xlsx
+++ b/fpma/uploads/moneglisedata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\fpma\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D73C1-0B80-4643-BF1B-E8FB7A091D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACF445-961B-4FD6-8771-E5E1C41C9ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="270">
   <si>
     <t>id</t>
   </si>
@@ -872,11 +872,6 @@
     <t xml:space="preserve">RAKITRA - ADIDY SAMIHAFA </t>
   </si>
   <si>
-    <t>Par virement bancaire &lt;/br&gt;
-Par chèque: à l'ordre de FPMA Melun &lt;/br&gt;
-Par Terminal de paiement électronique (TPE - carte)</t>
-  </si>
-  <si>
     <t>Fiche d'adhesion 2024</t>
   </si>
   <si>
@@ -1134,6 +1129,20 @@
   <si>
     <t xml:space="preserve">Miarahaba antsika amin'ny anaran'ny Tompo ! 
 Tahaka ny mahazatra dia misy ny alim-bavaka arahina par zoom &lt;a target="_balnk" href="Https://us02web.zoom.us/j/6936894758"&gt;&lt;u&gt;Https://us02web.zoom.us/j/6936894758&lt;/u&gt;&lt;/a&gt; isak'ny  talata amin'ny 20h30. </t>
+  </si>
+  <si>
+    <t>*Par virement bancaire &lt;/br&gt;
+*Par chèque: à l'ordre de FPMA Melun &lt;/br&gt;
+*Par Terminal de paiement électronique (TPE - carte)</t>
+  </si>
+  <si>
+    <t>poto</t>
+  </si>
+  <si>
+    <t>2024-06-30T21:59:39.000Z</t>
+  </si>
+  <si>
+    <t>Alahadin'ny Sekoly Alahady 30 Juin 2024</t>
   </si>
 </sst>
 </file>
@@ -1198,12 +1207,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1218,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1241,6 +1256,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1458,38 +1475,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="56.875" customWidth="1"/>
-    <col min="3" max="3" width="255.625" customWidth="1"/>
+    <col min="2" max="2" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2076,7 +2093,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2097,7 +2114,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2158,7 +2175,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -3149,18 +3166,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="120.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="26" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3348,7 +3369,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>76</v>
@@ -3406,7 +3427,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>76</v>
@@ -3464,7 +3485,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>76</v>
@@ -3522,7 +3543,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>76</v>
@@ -3580,7 +3601,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
@@ -3638,7 +3659,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>76</v>
@@ -3696,7 +3717,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>76</v>
@@ -3754,7 +3775,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>76</v>
@@ -3812,7 +3833,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>76</v>
@@ -3870,7 +3891,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>76</v>
@@ -3928,7 +3949,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>76</v>
@@ -3986,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>76</v>
@@ -4044,7 +4065,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>76</v>
@@ -4102,7 +4123,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>76</v>
@@ -4160,7 +4181,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>76</v>
@@ -4218,7 +4239,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>76</v>
@@ -4276,7 +4297,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>76</v>
@@ -4334,7 +4355,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>76</v>
@@ -4392,7 +4413,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>76</v>
@@ -4450,7 +4471,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -4508,7 +4529,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>76</v>
@@ -4566,7 +4587,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>76</v>
@@ -4624,7 +4645,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>76</v>
@@ -4682,7 +4703,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>76</v>
@@ -4740,7 +4761,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>76</v>
@@ -4798,7 +4819,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>76</v>
@@ -4856,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>76</v>
@@ -4914,7 +4935,7 @@
         <v>74</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>76</v>
@@ -4972,7 +4993,7 @@
         <v>74</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>76</v>
@@ -5030,7 +5051,7 @@
         <v>74</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>76</v>
@@ -5088,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>76</v>
@@ -5146,7 +5167,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>76</v>
@@ -5204,7 +5225,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>76</v>
@@ -5262,7 +5283,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>76</v>
@@ -5320,7 +5341,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>76</v>
@@ -5378,7 +5399,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>76</v>
@@ -5436,7 +5457,7 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>76</v>
@@ -5494,7 +5515,7 @@
         <v>74</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>76</v>
@@ -5552,7 +5573,7 @@
         <v>74</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>76</v>
@@ -5610,7 +5631,7 @@
         <v>74</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>76</v>
@@ -5668,7 +5689,7 @@
         <v>74</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>76</v>
@@ -6613,7 +6634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6673,15 +6696,15 @@
         <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7689,22 +7712,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="31.25" customWidth="1"/>
     <col min="6" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -7721,207 +7744,220 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="D7" s="7">
         <v>100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="D8" s="7">
         <v>101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="7">
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="7">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>267</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8933,10 +8969,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -8945,566 +8981,566 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/fpma/uploads/moneglisedata.xlsx
+++ b/fpma/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\fpma\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACF445-961B-4FD6-8771-E5E1C41C9ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905F482-6E36-40FF-A43D-3FD2C20F53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -953,9 +953,6 @@
     <t>RAKOTOARIMANGA Marc</t>
   </si>
   <si>
-    <t>http://api.randomuser.me/portraits/men/49.jpg</t>
-  </si>
-  <si>
     <t>Filoha</t>
   </si>
   <si>
@@ -1143,6 +1140,9 @@
   </si>
   <si>
     <t>Alahadin'ny Sekoly Alahady 30 Juin 2024</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1337144146/fr/vectoriel/vecteur-dic%C3%B4ne-de-profil-davatar-par-d%C3%A9faut.jpg?s=1024x1024&amp;w=is&amp;k=20&amp;c=XM2Gji0NqwLiwD-T2ZUXBS409qldkRUSth7kj8aObn8=</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1153,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1206,6 +1206,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1B1C1C"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1233,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1258,6 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2093,7 +2100,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2114,7 +2121,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2175,7 +2182,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -3369,7 +3376,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>76</v>
@@ -3427,7 +3434,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>76</v>
@@ -3485,7 +3492,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>76</v>
@@ -3543,7 +3550,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>76</v>
@@ -3601,7 +3608,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
@@ -3659,7 +3666,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>76</v>
@@ -3717,7 +3724,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>76</v>
@@ -3775,7 +3782,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>76</v>
@@ -3833,7 +3840,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>76</v>
@@ -3891,7 +3898,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>76</v>
@@ -3949,7 +3956,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>76</v>
@@ -4007,7 +4014,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>76</v>
@@ -4065,7 +4072,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>76</v>
@@ -4123,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>76</v>
@@ -4181,7 +4188,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>76</v>
@@ -4239,7 +4246,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>76</v>
@@ -4297,7 +4304,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>76</v>
@@ -4355,7 +4362,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>76</v>
@@ -4413,7 +4420,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>76</v>
@@ -4471,7 +4478,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -4529,7 +4536,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>76</v>
@@ -4587,7 +4594,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>76</v>
@@ -4645,7 +4652,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>76</v>
@@ -4703,7 +4710,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>76</v>
@@ -4761,7 +4768,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>76</v>
@@ -4819,7 +4826,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>76</v>
@@ -4877,7 +4884,7 @@
         <v>74</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>76</v>
@@ -4935,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>76</v>
@@ -4993,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>76</v>
@@ -5051,7 +5058,7 @@
         <v>74</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>76</v>
@@ -5109,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>76</v>
@@ -5167,7 +5174,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>76</v>
@@ -5225,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>76</v>
@@ -5283,7 +5290,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>76</v>
@@ -5341,7 +5348,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>76</v>
@@ -5399,7 +5406,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>76</v>
@@ -5457,7 +5464,7 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>76</v>
@@ -5515,7 +5522,7 @@
         <v>74</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>76</v>
@@ -5573,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>76</v>
@@ -5631,7 +5638,7 @@
         <v>74</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>76</v>
@@ -5689,7 +5696,7 @@
         <v>74</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>76</v>
@@ -6696,7 +6703,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7712,7 +7719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -7848,7 +7855,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>200</v>
@@ -7876,7 +7883,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>200</v>
@@ -7890,7 +7897,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>200</v>
@@ -7904,7 +7911,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>200</v>
@@ -7918,7 +7925,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>200</v>
@@ -7932,7 +7939,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>200</v>
@@ -7946,16 +7953,16 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8952,8 +8959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8991,8 +8998,8 @@
       <c r="B2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>207</v>
+      <c r="C2" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>205</v>
@@ -9000,533 +9007,533 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>207</v>
+      <c r="C4" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>207</v>
+      <c r="C5" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>207</v>
+      <c r="C7" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>207</v>
+      <c r="C8" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>207</v>
+      <c r="C10" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>207</v>
+      <c r="C11" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>207</v>
+      <c r="C12" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>231</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>207</v>
+      <c r="C16" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>207</v>
+        <v>237</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>207</v>
+        <v>240</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>207</v>
+        <v>248</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>207</v>
+      <c r="C29" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>207</v>
+        <v>253</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>207</v>
+        <v>248</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9534,10 +9541,10 @@
         <v>205</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>207</v>
+        <v>254</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>205</v>

--- a/fpma/uploads/moneglisedata.xlsx
+++ b/fpma/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\fpma\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905F482-6E36-40FF-A43D-3FD2C20F53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034E4E33-0429-4C47-98E0-DC89844024DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -863,9 +863,6 @@
     <t>ASA SY FAMPAHEREZANA</t>
   </si>
   <si>
-    <t>Mampahatsiahy antsika mpianakavin'ny finoana. Fa efa nanomboka ny Asa sy Fampaherezana ato amin'ny fiangonana. Ka dia isaky ny Alahady faharoa ny volana izany. Koa isika izay maniry izany dia raisina</t>
-  </si>
-  <si>
     <t>2024-04-18T21:59:39.000Z</t>
   </si>
   <si>
@@ -1143,6 +1140,9 @@
   </si>
   <si>
     <t>https://media.istockphoto.com/id/1337144146/fr/vectoriel/vecteur-dic%C3%B4ne-de-profil-davatar-par-d%C3%A9faut.jpg?s=1024x1024&amp;w=is&amp;k=20&amp;c=XM2Gji0NqwLiwD-T2ZUXBS409qldkRUSth7kj8aObn8=</t>
+  </si>
+  <si>
+    <t>Mampahatsiahy antsika mpianakavin'ny finoana. Fa efa nanomboka ny Asa sy Fampaherezana ato amin'ny fiangonana. Ka dia isaky ny Alahady faha efatran'ny volana izany. Koa isika izay maniry izany dia raisina</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2100,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2121,7 +2121,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2182,7 +2182,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -3376,7 +3376,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>76</v>
@@ -3434,7 +3434,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>76</v>
@@ -3492,7 +3492,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>76</v>
@@ -3550,7 +3550,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>76</v>
@@ -3608,7 +3608,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
@@ -3666,7 +3666,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>76</v>
@@ -3724,7 +3724,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>76</v>
@@ -3782,7 +3782,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>76</v>
@@ -3840,7 +3840,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>76</v>
@@ -3898,7 +3898,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>76</v>
@@ -3956,7 +3956,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>76</v>
@@ -4014,7 +4014,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>76</v>
@@ -4072,7 +4072,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>76</v>
@@ -4130,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>76</v>
@@ -4188,7 +4188,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>76</v>
@@ -4246,7 +4246,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>76</v>
@@ -4304,7 +4304,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>76</v>
@@ -4362,7 +4362,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>76</v>
@@ -4420,7 +4420,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>76</v>
@@ -4478,7 +4478,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -4536,7 +4536,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>76</v>
@@ -4594,7 +4594,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>76</v>
@@ -4652,7 +4652,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>76</v>
@@ -4710,7 +4710,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>76</v>
@@ -4768,7 +4768,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>76</v>
@@ -4826,7 +4826,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>76</v>
@@ -4884,7 +4884,7 @@
         <v>74</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>76</v>
@@ -4942,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>76</v>
@@ -5000,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>76</v>
@@ -5058,7 +5058,7 @@
         <v>74</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>76</v>
@@ -5116,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>76</v>
@@ -5174,7 +5174,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>76</v>
@@ -5232,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>76</v>
@@ -5290,7 +5290,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>76</v>
@@ -5348,7 +5348,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>76</v>
@@ -5406,7 +5406,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>76</v>
@@ -5464,7 +5464,7 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>76</v>
@@ -5522,7 +5522,7 @@
         <v>74</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>76</v>
@@ -5580,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>76</v>
@@ -5638,7 +5638,7 @@
         <v>74</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>76</v>
@@ -5696,7 +5696,7 @@
         <v>74</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>76</v>
@@ -6641,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6667,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6689,10 +6689,10 @@
         <v>177</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6700,18 +6700,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7734,7 +7734,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -7751,218 +7751,218 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="D7" s="7">
         <v>100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="D8" s="7">
         <v>101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="7">
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8959,7 +8959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8976,10 +8976,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -8988,566 +8988,566 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="C11" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="C16" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="C29" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
